--- a/Template/Шаблон для загрузки приложений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки приложений в DirectumRX.xlsx
@@ -99,12 +99,6 @@
     <x:t>б/н</x:t>
   </x:si>
   <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден контрагент "".</x:t>
-  </x:si>
-  <x:si>
     <x:t>Вектор-Авто, ООО</x:t>
   </x:si>
   <x:si>
@@ -112,6 +106,9 @@
   </x:si>
   <x:si>
     <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>25.01.2024</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -590,7 +587,7 @@
   <x:dimension ref="A1:T6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2"/>
+      <x:selection activeCell="D2" sqref="D2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +681,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D2" s="21">
-        <x:v>45313</x:v>
+        <x:v>45314</x:v>
       </x:c>
       <x:c r="E2" s="18" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F2" s="22" t="s">
         <x:v>19</x:v>
@@ -713,13 +710,13 @@
       </x:c>
       <x:c r="P2" s="5"/>
       <x:c r="Q2" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="R2" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="R2" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="S2" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
